--- a/assets/files/CV7.xlsx
+++ b/assets/files/CV7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1997 +625,1997 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>47.979797979797979</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>7.5757575757575761</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>8.5858585858585865</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>2.5252525252525251</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>198</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>32.804232804232804</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>49.206349206349209</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>4.7619047619047619</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>2.1164021164021163</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>33.074935400516793</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>48.578811369509047</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>9.3023255813953494</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>6.7183462532299743</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>2.3255813953488373</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>42.168674698795179</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>22.08835341365462</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>6.024096385542169</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>29.317269076305219</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>0.40160642570281124</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>249</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>26.271186440677965</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>30.508474576271187</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>18.64406779661017</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>23.728813559322035</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0.84745762711864403</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>118</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>37.057220708446863</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>24.795640326975477</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>10.081743869209809</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>27.520435967302451</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>0.54495912806539515</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>24.036281179138321</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>45.57823129251701</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>13.605442176870747</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>14.058956916099774</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>2.7210884353741496</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>441</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>26.970954356846473</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>48.132780082987551</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>15.767634854771785</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>6.6390041493775938</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>2.4896265560165975</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>241</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>25.073313782991203</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>46.480938416422291</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>14.369501466275659</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>11.436950146627566</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>2.6392961876832843</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>682</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>21.518987341772153</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>69.620253164556956</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>7.5949367088607591</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>16.60649819494585</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>66.4259927797834</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>12.996389891696751</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>3.2490974729241877</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>0.72202166064981954</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>277</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>17.696629213483146</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>67.134831460674164</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>11.797752808988765</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>2.5280898876404496</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>0.84269662921348309</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>12.777777777777779</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>50</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>22.777777777777779</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>7.7777777777777777</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>180</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>19.811320754716981</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>39.622641509433961</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>30.188679245283019</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>1.8867924528301887</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>8.4905660377358494</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>106</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>15.384615384615385</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>46.153846153846153</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>25.524475524475523</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>5.5944055944055942</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>7.3426573426573425</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>11.794871794871796</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>32.307692307692307</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>47.692307692307693</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>5.6410256410256414</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>3.755868544600939</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>36.619718309859152</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>56.8075117370892</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>7.5980392156862742</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>34.558823529411768</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>52.450980392156865</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>3.4313725490196076</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>1.9607843137254901</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>13.953488372093023</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>53.488372093023258</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>18.604651162790699</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>13.953488372093023</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>15.74074074074074</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>46.913580246913583</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>30.555555555555557</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>3.7037037037037037</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>3.0864197530864197</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>324</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>15.531335149863761</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>47.683923705722073</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>29.155313351498638</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>4.9046321525885554</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>2.7247956403269753</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>20.816326530612244</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>36.734693877551024</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>8.5714285714285712</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>22.040816326530614</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>11.836734693877551</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>245</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>25.899280575539567</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>52.517985611510788</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>10.791366906474821</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>7.1942446043165464</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>3.5971223021582732</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>22.65625</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>42.447916666666664</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>9.375</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>16.666666666666668</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>8.8541666666666661</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>24.137931034482758</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>59.770114942528735</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>8.0459770114942533</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>23.131672597864767</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>49.466192170818502</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>16.725978647686834</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>9.252669039145907</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>1.4234875444839858</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>23.369565217391305</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>51.902173913043477</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>14.673913043478262</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>8.695652173913043</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>1.3586956521739131</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>13.5678391959799</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>37.688442211055275</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>11.557788944723619</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>37.185929648241206</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>199</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>8.938547486033519</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>36.871508379888269</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>48.603351955307261</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>5.5865921787709496</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>179</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>11.375661375661375</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>37.301587301587304</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>29.100529100529101</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>22.222222222222221</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <v>0</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>43.362831858407077</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>42.920353982300888</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.44247787610619471</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>13.274336283185841</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>3.2467532467532467</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>62.987012987012989</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>29.870129870129869</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>3.2467532467532467</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>0.64935064935064934</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>27.105263157894736</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>51.05263157894737</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>12.368421052631579</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>9.2105263157894743</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>0.26315789473684209</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>23.348017621145374</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>38.766519823788549</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>12.775330396475772</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>13.215859030837004</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>11.894273127753303</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>227</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>21.296296296296298</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>40.74074074074074</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>25</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>1.8518518518518519</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>108</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>22.686567164179106</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>39.402985074626862</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>16.71641791044776</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>12.537313432835822</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>8.656716417910447</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>26.016260162601625</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>39.024390243902438</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>6.5040650406504064</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>19.512195121951219</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>8.9430894308943092</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>21.370967741935484</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>46.774193548387096</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>7.258064516129032</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>19.758064516129032</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>4.838709677419355</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>248</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>22.911051212938006</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>44.204851752021561</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>7.0080862533692718</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>19.676549865229109</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>6.1994609164420487</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>39.583333333333336</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>50</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>6.25</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>38.32335329341317</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>54.491017964071858</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>5.3892215568862278</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>1.4970059880239521</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>0.29940119760479039</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>334</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>38.481675392670155</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>53.926701570680628</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>5.2356020942408374</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>1.3089005235602094</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>1.0471204188481675</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>31.333333333333332</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>38.666666666666664</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>11.333333333333334</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>9.3333333333333339</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>9.3333333333333339</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>22.033898305084747</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>41.101694915254235</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>13.983050847457626</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>5.5084745762711869</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>17.372881355932204</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>25.647668393782382</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>40.155440414507773</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>12.953367875647668</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>6.9948186528497409</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>14.248704663212436</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>13.492063492063492</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>44.973544973544975</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>32.539682539682538</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>8.7301587301587293</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>0.26455026455026454</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>378</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>13.492063492063492</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>44.973544973544975</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>32.539682539682538</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>8.7301587301587293</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>0.26455026455026454</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>31.578947368421051</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>36.842105263157897</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>18.421052631578949</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>7.8947368421052628</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>38</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>27.514792899408285</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>57.396449704142015</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>5.9171597633136095</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>7.1005917159763312</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>2.0710059171597632</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>338</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>27.925531914893618</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>55.319148936170215</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>7.1808510638297873</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>7.1808510638297873</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>2.3936170212765959</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>71.098265895953759</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>8.6705202312138727</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>3.4682080924855492</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>12.716763005780347</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>4.0462427745664744</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>173</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>54.696132596685082</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>25.414364640883978</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>6.6298342541436464</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>13.259668508287293</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>0</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>181</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>62.711864406779661</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>17.231638418079097</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>5.0847457627118642</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>12.994350282485875</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>1.9774011299435028</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>30.303030303030305</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>6.0606060606060606</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>46.575342465753423</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>24.657534246575342</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>5.7534246575342465</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>19.726027397260275</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>3.2876712328767121</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>365</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>44.974874371859293</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>24.874371859296481</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>6.0301507537688446</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>20.603015075376884</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>3.5175879396984926</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>21.182266009852217</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>50.24630541871921</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>20.689655172413794</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>3.9408866995073892</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>3.9408866995073892</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>19.553072625698324</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>52.513966480446925</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>20.11173184357542</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>5.027932960893855</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>2.7932960893854748</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>179</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>20.418848167539267</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>51.308900523560212</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>20.418848167539267</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>4.4502617801047117</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>3.4031413612565444</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>16.184971098265898</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>41.618497109826592</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>29.479768786127167</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>9.2485549132947984</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>3.4682080924855492</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>22.058823529411764</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>46.078431372549019</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>16.666666666666668</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>12.745098039215685</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>2.4509803921568629</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>204</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>19.363395225464192</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>44.031830238726791</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>22.546419098143236</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>11.140583554376658</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>2.9177718832891246</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>15.957446808510639</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>45.744680851063826</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>17.021276595744681</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>18.085106382978722</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>3.1914893617021276</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>17.948717948717949</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>48.717948717948715</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>16.923076923076923</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>10.76923076923077</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>5.6410256410256414</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>16.971279373368148</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>47.258485639686683</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>16.971279373368148</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>14.360313315926893</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>4.438642297650131</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>8.1504702194357375</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>5.3291536050156738</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>0.31347962382445144</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>85.266457680250781</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>0.94043887147335425</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>319</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>8.064516129032258</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>40.322580645161288</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>43.548387096774192</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>8.064516129032258</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>0</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>8.1364829396325451</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>11.023622047244094</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>7.349081364829396</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>72.70341207349081</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>0.78740157480314965</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>31.891891891891891</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>32.972972972972975</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>5.9459459459459456</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>20.54054054054054</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>8.6486486486486491</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>185</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>19.473684210526315</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>40</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>17.894736842105264</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>17.894736842105264</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>4.7368421052631575</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>190</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>25.6</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>36.533333333333331</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>12</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>19.2</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>375</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>21.490467937608319</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>58.925476603119584</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>8.8388214904679376</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>5.5459272097053729</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>5.1993067590987865</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>577</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>26.206384558277655</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>34.075723830734965</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>23.236822568671123</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>7.6466221232368223</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>8.8344469190794364</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1347</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>24.792099792099791</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>41.528066528066525</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>18.918918918918919</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>7.0166320166320162</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>7.744282744282744</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1924</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>37.878787878787875</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>54.545454545454547</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>6.0606060606060606</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>1.5151515151515151</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>132</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>22.15909090909091</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>60.795454545454547</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>6.8181818181818183</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>1.1363636363636365</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>528</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>25.303030303030305</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>59.545454545454547</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>8.4848484848484844</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>5.7575757575757578</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.90909090909090906</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>660</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>23.30827067669173</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>52.631578947368418</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>9.7744360902255636</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>9.022556390977444</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>21.164021164021165</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>48.677248677248677</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>7.9365079365079367</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>189</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>22.049689440993788</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>50.310559006211179</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>8.695652173913043</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>10.559006211180124</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>8.3850931677018625</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>40.434782608695649</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>30.434782608695652</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>7.8260869565217392</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>18.695652173913043</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>2.6086956521739131</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>230</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>31.967213114754099</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>31.967213114754099</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>10.655737704918034</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>17.21311475409836</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>8.1967213114754092</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>37.5</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>30.96590909090909</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>8.8068181818181817</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>4.5454545454545459</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>34.838709677419352</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>38.70967741935484</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>10.32258064516129</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>14.838709677419354</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>1.2903225806451613</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>34.482758620689658</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>44.827586206896555</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>7.7586206896551726</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>10.344827586206897</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>2.5862068965517242</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>34.625322997416021</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>42.377260981912144</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>8.7855297157622747</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>12.144702842377262</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>2.0671834625322996</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>29.72972972972973</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>30.63063063063063</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>10.810810810810811</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>27.027027027027028</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>1.8018018018018018</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>24.632352941176471</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>53.676470588235297</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>13.602941176470589</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>6.25</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>1.838235294117647</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>26.109660574412533</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>46.997389033942561</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>12.793733681462141</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>12.271540469973891</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>1.8276762402088773</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>60</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>21.111111111111111</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>52.222222222222221</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>17.777777777777779</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>2.2222222222222223</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>360</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>20.8</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>52.533333333333331</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>17.333333333333332</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>6.9333333333333336</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>2.4</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>375</v>
       </c>
     </row>
